--- a/crawling/data/성균관대학교_자연과학캠퍼스.xlsx
+++ b/crawling/data/성균관대학교_자연과학캠퍼스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\One_for_One_2nd\One_for_One\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95987B7-5344-47FC-AD20-06EFD816D83F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8999FCC-3339-4E29-84BC-950E0BC314AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E612C5AC-9CCE-4012-A4B8-EF9A84BAE46F}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{E612C5AC-9CCE-4012-A4B8-EF9A84BAE46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9738B09-9B0E-4A58-9F3E-739179A4E3AD}">
   <dimension ref="A1:I765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="I773" sqref="I773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5518,7 +5518,7 @@
         <v>3167</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>359</v>
@@ -5547,7 +5547,7 @@
         <v>2203</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>359</v>
@@ -5576,7 +5576,7 @@
         <v>1532</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>359</v>
@@ -5605,7 +5605,7 @@
         <v>1340</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>359</v>
@@ -5634,7 +5634,7 @@
         <v>1292</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>359</v>
@@ -5663,7 +5663,7 @@
         <v>1240</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>359</v>
@@ -5692,7 +5692,7 @@
         <v>1221</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>359</v>
@@ -5721,7 +5721,7 @@
         <v>1140</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>359</v>
@@ -5750,7 +5750,7 @@
         <v>1120</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>359</v>
@@ -5779,7 +5779,7 @@
         <v>1050</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>359</v>
@@ -5808,7 +5808,7 @@
         <v>1003</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>359</v>
@@ -5837,7 +5837,7 @@
         <v>1000</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>359</v>
@@ -5866,7 +5866,7 @@
         <v>939</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>359</v>
@@ -5895,7 +5895,7 @@
         <v>872</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>359</v>
@@ -5924,7 +5924,7 @@
         <v>848</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>359</v>
@@ -5953,7 +5953,7 @@
         <v>817</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>359</v>
@@ -5982,7 +5982,7 @@
         <v>813</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>359</v>
@@ -6011,7 +6011,7 @@
         <v>779</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>359</v>
@@ -6040,7 +6040,7 @@
         <v>699</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>359</v>
@@ -6069,7 +6069,7 @@
         <v>684</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>359</v>
@@ -6098,7 +6098,7 @@
         <v>637</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>359</v>
@@ -6127,7 +6127,7 @@
         <v>597</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>359</v>
@@ -6156,7 +6156,7 @@
         <v>556</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>359</v>
@@ -6185,7 +6185,7 @@
         <v>496</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>359</v>
@@ -6214,7 +6214,7 @@
         <v>481</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>359</v>
@@ -6243,7 +6243,7 @@
         <v>459</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>359</v>
@@ -6272,7 +6272,7 @@
         <v>428</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>359</v>
@@ -6301,7 +6301,7 @@
         <v>402</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>359</v>
@@ -6330,7 +6330,7 @@
         <v>401</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>359</v>
@@ -6359,7 +6359,7 @@
         <v>358</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>359</v>
@@ -6388,7 +6388,7 @@
         <v>356</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>359</v>
@@ -6417,7 +6417,7 @@
         <v>352</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>359</v>
@@ -6446,7 +6446,7 @@
         <v>351</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>359</v>
@@ -6475,7 +6475,7 @@
         <v>314</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>359</v>
@@ -6504,7 +6504,7 @@
         <v>310</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>359</v>
@@ -6533,7 +6533,7 @@
         <v>301</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>359</v>
@@ -6562,7 +6562,7 @@
         <v>301</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>359</v>
@@ -6591,7 +6591,7 @@
         <v>298</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>359</v>
@@ -6620,7 +6620,7 @@
         <v>295</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>359</v>
@@ -6649,7 +6649,7 @@
         <v>285</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>359</v>
@@ -6678,7 +6678,7 @@
         <v>277</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>359</v>
@@ -6707,7 +6707,7 @@
         <v>264</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>359</v>
@@ -6736,7 +6736,7 @@
         <v>252</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>359</v>
@@ -6765,7 +6765,7 @@
         <v>243</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>359</v>
@@ -6794,7 +6794,7 @@
         <v>230</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>359</v>
@@ -6823,7 +6823,7 @@
         <v>217</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>359</v>
@@ -6852,7 +6852,7 @@
         <v>215</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>359</v>
@@ -6881,7 +6881,7 @@
         <v>211</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>359</v>
@@ -6910,7 +6910,7 @@
         <v>210</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>359</v>
@@ -6939,7 +6939,7 @@
         <v>209</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>359</v>
@@ -6968,7 +6968,7 @@
         <v>193</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>359</v>
@@ -6997,7 +6997,7 @@
         <v>179</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>359</v>
@@ -7026,7 +7026,7 @@
         <v>174</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>359</v>
@@ -7055,7 +7055,7 @@
         <v>174</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>359</v>
@@ -7084,7 +7084,7 @@
         <v>165</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>359</v>
@@ -7113,7 +7113,7 @@
         <v>165</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>359</v>
@@ -7142,7 +7142,7 @@
         <v>139</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>359</v>
@@ -7171,7 +7171,7 @@
         <v>135</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>359</v>
@@ -7200,7 +7200,7 @@
         <v>135</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>359</v>
@@ -7229,7 +7229,7 @@
         <v>129</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>359</v>
@@ -7258,7 +7258,7 @@
         <v>122</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>359</v>
@@ -7287,7 +7287,7 @@
         <v>111</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>359</v>
@@ -7316,7 +7316,7 @@
         <v>106</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>359</v>
@@ -7345,7 +7345,7 @@
         <v>98</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>359</v>
@@ -7374,7 +7374,7 @@
         <v>87</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>359</v>
@@ -7403,7 +7403,7 @@
         <v>81</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>359</v>
@@ -7432,7 +7432,7 @@
         <v>77</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>359</v>
@@ -7461,7 +7461,7 @@
         <v>77</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>359</v>
@@ -7490,7 +7490,7 @@
         <v>74</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>359</v>
@@ -7519,7 +7519,7 @@
         <v>63</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>359</v>
@@ -7548,7 +7548,7 @@
         <v>61</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>359</v>
@@ -7577,7 +7577,7 @@
         <v>60</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>359</v>
@@ -7606,7 +7606,7 @@
         <v>59</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>359</v>
@@ -7635,7 +7635,7 @@
         <v>57</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>359</v>
@@ -7664,7 +7664,7 @@
         <v>52</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>359</v>
@@ -7693,7 +7693,7 @@
         <v>45</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>359</v>
@@ -7722,7 +7722,7 @@
         <v>41</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>359</v>
@@ -7751,7 +7751,7 @@
         <v>40</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>359</v>
@@ -7780,7 +7780,7 @@
         <v>39</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>359</v>
@@ -7809,7 +7809,7 @@
         <v>39</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>359</v>
@@ -7838,7 +7838,7 @@
         <v>35</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>359</v>
@@ -7867,7 +7867,7 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>359</v>
@@ -7896,7 +7896,7 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>359</v>
@@ -7925,7 +7925,7 @@
         <v>29</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>359</v>
@@ -7954,7 +7954,7 @@
         <v>27</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>359</v>
@@ -7983,7 +7983,7 @@
         <v>26</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>359</v>
@@ -8012,7 +8012,7 @@
         <v>24</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>359</v>
@@ -8041,7 +8041,7 @@
         <v>19</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>359</v>
@@ -8070,7 +8070,7 @@
         <v>19</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>359</v>
@@ -8099,7 +8099,7 @@
         <v>18</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>359</v>
@@ -8128,7 +8128,7 @@
         <v>16</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>359</v>
@@ -8157,7 +8157,7 @@
         <v>16</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>359</v>
@@ -8186,7 +8186,7 @@
         <v>15</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>359</v>
@@ -8215,7 +8215,7 @@
         <v>15</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>359</v>
@@ -8244,7 +8244,7 @@
         <v>13</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>359</v>
@@ -8273,7 +8273,7 @@
         <v>13</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>359</v>
@@ -8302,7 +8302,7 @@
         <v>12</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>359</v>
@@ -8331,7 +8331,7 @@
         <v>12</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>359</v>
@@ -8360,7 +8360,7 @@
         <v>11</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>359</v>
@@ -8389,7 +8389,7 @@
         <v>10</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>359</v>
@@ -8418,7 +8418,7 @@
         <v>9</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>359</v>
@@ -8447,7 +8447,7 @@
         <v>8</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>359</v>
@@ -8476,7 +8476,7 @@
         <v>7</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>359</v>
@@ -8505,7 +8505,7 @@
         <v>6</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>359</v>
@@ -8534,7 +8534,7 @@
         <v>6</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>359</v>
@@ -8563,7 +8563,7 @@
         <v>5</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>359</v>
@@ -8592,7 +8592,7 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>359</v>
@@ -8621,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>359</v>
@@ -8650,7 +8650,7 @@
         <v>2910</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>572</v>
@@ -8679,7 +8679,7 @@
         <v>2203</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>572</v>
@@ -8708,7 +8708,7 @@
         <v>1346</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>572</v>
@@ -8737,7 +8737,7 @@
         <v>1295</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>572</v>
@@ -8766,7 +8766,7 @@
         <v>1124</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>572</v>
@@ -8795,7 +8795,7 @@
         <v>1006</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>572</v>
@@ -8824,7 +8824,7 @@
         <v>1004</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>572</v>
@@ -8853,7 +8853,7 @@
         <v>927</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>572</v>
@@ -8882,7 +8882,7 @@
         <v>919</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>572</v>
@@ -8911,7 +8911,7 @@
         <v>901</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>572</v>
@@ -8940,7 +8940,7 @@
         <v>890</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>572</v>
@@ -8969,7 +8969,7 @@
         <v>846</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>572</v>
@@ -8998,7 +8998,7 @@
         <v>770</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>572</v>
@@ -9027,7 +9027,7 @@
         <v>650</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>572</v>
@@ -9056,7 +9056,7 @@
         <v>601</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>572</v>
@@ -9085,7 +9085,7 @@
         <v>544</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>572</v>
@@ -9114,7 +9114,7 @@
         <v>535</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>572</v>
@@ -9143,7 +9143,7 @@
         <v>517</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>572</v>
@@ -9172,7 +9172,7 @@
         <v>499</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>572</v>
@@ -9201,7 +9201,7 @@
         <v>483</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>572</v>
@@ -9230,7 +9230,7 @@
         <v>415</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>572</v>
@@ -9259,7 +9259,7 @@
         <v>387</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>572</v>
@@ -9288,7 +9288,7 @@
         <v>353</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>572</v>
@@ -9317,7 +9317,7 @@
         <v>326</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>572</v>
@@ -9346,7 +9346,7 @@
         <v>316</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>572</v>
@@ -9375,7 +9375,7 @@
         <v>301</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>572</v>
@@ -9404,7 +9404,7 @@
         <v>280</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>572</v>
@@ -9433,7 +9433,7 @@
         <v>272</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>572</v>
@@ -9462,7 +9462,7 @@
         <v>255</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>572</v>
@@ -9491,7 +9491,7 @@
         <v>228</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>572</v>
@@ -9520,7 +9520,7 @@
         <v>216</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>572</v>
@@ -9549,7 +9549,7 @@
         <v>191</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>572</v>
@@ -9578,7 +9578,7 @@
         <v>179</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>572</v>
@@ -9607,7 +9607,7 @@
         <v>179</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>572</v>
@@ -9636,7 +9636,7 @@
         <v>174</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>572</v>
@@ -9665,7 +9665,7 @@
         <v>160</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>572</v>
@@ -9694,7 +9694,7 @@
         <v>135</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>572</v>
@@ -9723,7 +9723,7 @@
         <v>135</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>572</v>
@@ -9752,7 +9752,7 @@
         <v>112</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>572</v>
@@ -9781,7 +9781,7 @@
         <v>102</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>572</v>
@@ -9810,7 +9810,7 @@
         <v>98</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>572</v>
@@ -9839,7 +9839,7 @@
         <v>84</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>572</v>
@@ -9868,7 +9868,7 @@
         <v>83</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>572</v>
@@ -9897,7 +9897,7 @@
         <v>78</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>572</v>
@@ -9926,7 +9926,7 @@
         <v>77</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>572</v>
@@ -9955,7 +9955,7 @@
         <v>72</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>572</v>
@@ -9984,7 +9984,7 @@
         <v>63</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>572</v>
@@ -10013,7 +10013,7 @@
         <v>61</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>572</v>
@@ -10042,7 +10042,7 @@
         <v>60</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>572</v>
@@ -10071,7 +10071,7 @@
         <v>56</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>572</v>
@@ -10100,7 +10100,7 @@
         <v>48</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>572</v>
@@ -10129,7 +10129,7 @@
         <v>45</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>572</v>
@@ -10158,7 +10158,7 @@
         <v>45</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>572</v>
@@ -10187,7 +10187,7 @@
         <v>44</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>572</v>
@@ -10216,7 +10216,7 @@
         <v>43</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>572</v>
@@ -10245,7 +10245,7 @@
         <v>41</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>572</v>
@@ -10274,7 +10274,7 @@
         <v>39</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>572</v>
@@ -10303,7 +10303,7 @@
         <v>39</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>572</v>
@@ -10332,7 +10332,7 @@
         <v>36</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>572</v>
@@ -10361,7 +10361,7 @@
         <v>36</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I169" s="1" t="s">
         <v>572</v>
@@ -10390,7 +10390,7 @@
         <v>28</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>572</v>
@@ -10419,7 +10419,7 @@
         <v>27</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>572</v>
@@ -10448,7 +10448,7 @@
         <v>26</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>572</v>
@@ -10477,7 +10477,7 @@
         <v>26</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>572</v>
@@ -10506,7 +10506,7 @@
         <v>23</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>572</v>
@@ -10535,7 +10535,7 @@
         <v>21</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>572</v>
@@ -10564,7 +10564,7 @@
         <v>21</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>572</v>
@@ -10593,7 +10593,7 @@
         <v>21</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>572</v>
@@ -10622,7 +10622,7 @@
         <v>17</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>572</v>
@@ -10651,7 +10651,7 @@
         <v>15</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>572</v>
@@ -10680,7 +10680,7 @@
         <v>15</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>572</v>
@@ -10709,7 +10709,7 @@
         <v>15</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>572</v>
@@ -10738,7 +10738,7 @@
         <v>13</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>572</v>
@@ -10767,7 +10767,7 @@
         <v>10</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>572</v>
@@ -10796,7 +10796,7 @@
         <v>10</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>572</v>
@@ -10825,7 +10825,7 @@
         <v>7</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>572</v>
@@ -10854,7 +10854,7 @@
         <v>7</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>572</v>
@@ -10883,7 +10883,7 @@
         <v>7</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>572</v>
@@ -10912,7 +10912,7 @@
         <v>6</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>572</v>
@@ -10941,7 +10941,7 @@
         <v>5</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>572</v>
@@ -10970,7 +10970,7 @@
         <v>4</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>572</v>
@@ -10999,7 +10999,7 @@
         <v>4</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>572</v>
@@ -11028,7 +11028,7 @@
         <v>4</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>572</v>
@@ -11057,7 +11057,7 @@
         <v>4</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>572</v>
@@ -11086,7 +11086,7 @@
         <v>3</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>572</v>
@@ -11115,7 +11115,7 @@
         <v>3</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>572</v>
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>572</v>
@@ -11173,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>572</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>572</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>572</v>
@@ -11260,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>572</v>
@@ -11289,7 +11289,7 @@
         <v>1570</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>709</v>
@@ -11318,7 +11318,7 @@
         <v>1364</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>709</v>
@@ -11347,7 +11347,7 @@
         <v>1020</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>709</v>
@@ -11376,7 +11376,7 @@
         <v>715</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>709</v>
@@ -11405,7 +11405,7 @@
         <v>575</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>709</v>
@@ -11434,7 +11434,7 @@
         <v>508</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>709</v>
@@ -11463,7 +11463,7 @@
         <v>390</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>709</v>
@@ -11492,7 +11492,7 @@
         <v>358</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>709</v>
@@ -11521,7 +11521,7 @@
         <v>213</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>709</v>
@@ -11550,7 +11550,7 @@
         <v>166</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>709</v>
@@ -11579,7 +11579,7 @@
         <v>114</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>709</v>
@@ -11608,7 +11608,7 @@
         <v>105</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>709</v>
@@ -11637,7 +11637,7 @@
         <v>60</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>709</v>
@@ -11666,7 +11666,7 @@
         <v>57</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>709</v>
@@ -11695,7 +11695,7 @@
         <v>56</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>709</v>
@@ -11724,7 +11724,7 @@
         <v>50</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>709</v>
@@ -11753,7 +11753,7 @@
         <v>46</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>709</v>
@@ -11782,7 +11782,7 @@
         <v>43</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>709</v>
@@ -11811,7 +11811,7 @@
         <v>36</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>709</v>
@@ -11840,7 +11840,7 @@
         <v>35</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>709</v>
@@ -11869,7 +11869,7 @@
         <v>33</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>709</v>
@@ -11898,7 +11898,7 @@
         <v>33</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>709</v>
@@ -11927,7 +11927,7 @@
         <v>31</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>709</v>
@@ -11956,7 +11956,7 @@
         <v>29</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>709</v>
@@ -11985,7 +11985,7 @@
         <v>23</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>709</v>
@@ -12014,7 +12014,7 @@
         <v>21</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>709</v>
@@ -12043,7 +12043,7 @@
         <v>19</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>709</v>
@@ -12072,7 +12072,7 @@
         <v>18</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>709</v>
@@ -12101,7 +12101,7 @@
         <v>18</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>709</v>
@@ -12130,7 +12130,7 @@
         <v>18</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>709</v>
@@ -12159,7 +12159,7 @@
         <v>15</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>709</v>
@@ -12188,7 +12188,7 @@
         <v>15</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>709</v>
@@ -12217,7 +12217,7 @@
         <v>14</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>709</v>
@@ -12246,7 +12246,7 @@
         <v>13</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>709</v>
@@ -12275,7 +12275,7 @@
         <v>11</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>709</v>
@@ -12304,7 +12304,7 @@
         <v>5</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>709</v>
@@ -12333,7 +12333,7 @@
         <v>5</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>709</v>
@@ -12362,7 +12362,7 @@
         <v>5</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>709</v>
@@ -12391,7 +12391,7 @@
         <v>4</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>709</v>
@@ -12420,7 +12420,7 @@
         <v>3</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>709</v>
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>709</v>
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>709</v>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>709</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>709</v>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>709</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>709</v>
@@ -12623,7 +12623,7 @@
         <v>2534</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>933</v>
@@ -12652,7 +12652,7 @@
         <v>1373</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>933</v>
@@ -12681,7 +12681,7 @@
         <v>1129</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>933</v>
@@ -12710,7 +12710,7 @@
         <v>924</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>933</v>
@@ -12739,7 +12739,7 @@
         <v>884</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>933</v>
@@ -12768,7 +12768,7 @@
         <v>781</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>933</v>
@@ -12797,7 +12797,7 @@
         <v>744</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>933</v>
@@ -12826,7 +12826,7 @@
         <v>598</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>933</v>
@@ -12855,7 +12855,7 @@
         <v>495</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>933</v>
@@ -12884,7 +12884,7 @@
         <v>494</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>933</v>
@@ -12913,7 +12913,7 @@
         <v>423</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>933</v>
@@ -12942,7 +12942,7 @@
         <v>352</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>933</v>
@@ -12971,7 +12971,7 @@
         <v>335</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>933</v>
@@ -13000,7 +13000,7 @@
         <v>334</v>
       </c>
       <c r="H260">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>933</v>
@@ -13029,7 +13029,7 @@
         <v>326</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>933</v>
@@ -13058,7 +13058,7 @@
         <v>317</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>933</v>
@@ -13087,7 +13087,7 @@
         <v>313</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>933</v>
@@ -13116,7 +13116,7 @@
         <v>307</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>933</v>
@@ -13145,7 +13145,7 @@
         <v>283</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>933</v>
@@ -13174,7 +13174,7 @@
         <v>267</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>933</v>
@@ -13203,7 +13203,7 @@
         <v>258</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>933</v>
@@ -13232,7 +13232,7 @@
         <v>258</v>
       </c>
       <c r="H268">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>933</v>
@@ -13261,7 +13261,7 @@
         <v>252</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>933</v>
@@ -13290,7 +13290,7 @@
         <v>238</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>933</v>
@@ -13319,7 +13319,7 @@
         <v>228</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>933</v>
@@ -13348,7 +13348,7 @@
         <v>227</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>933</v>
@@ -13377,7 +13377,7 @@
         <v>224</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>933</v>
@@ -13406,7 +13406,7 @@
         <v>213</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>933</v>
@@ -13435,7 +13435,7 @@
         <v>210</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>933</v>
@@ -13464,7 +13464,7 @@
         <v>210</v>
       </c>
       <c r="H276">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>933</v>
@@ -13493,7 +13493,7 @@
         <v>177</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>933</v>
@@ -13522,7 +13522,7 @@
         <v>167</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>933</v>
@@ -13551,7 +13551,7 @@
         <v>165</v>
       </c>
       <c r="H279">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>933</v>
@@ -13580,7 +13580,7 @@
         <v>159</v>
       </c>
       <c r="H280">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>933</v>
@@ -13609,7 +13609,7 @@
         <v>154</v>
       </c>
       <c r="H281">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>933</v>
@@ -13638,7 +13638,7 @@
         <v>146</v>
       </c>
       <c r="H282">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>933</v>
@@ -13667,7 +13667,7 @@
         <v>137</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>933</v>
@@ -13696,7 +13696,7 @@
         <v>136</v>
       </c>
       <c r="H284">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>933</v>
@@ -13725,7 +13725,7 @@
         <v>135</v>
       </c>
       <c r="H285">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>933</v>
@@ -13754,7 +13754,7 @@
         <v>134</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>933</v>
@@ -13783,7 +13783,7 @@
         <v>126</v>
       </c>
       <c r="H287">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>933</v>
@@ -13812,7 +13812,7 @@
         <v>121</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>933</v>
@@ -13841,7 +13841,7 @@
         <v>107</v>
       </c>
       <c r="H289">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>933</v>
@@ -13870,7 +13870,7 @@
         <v>101</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>933</v>
@@ -13899,7 +13899,7 @@
         <v>98</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>933</v>
@@ -13928,7 +13928,7 @@
         <v>95</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>933</v>
@@ -13957,7 +13957,7 @@
         <v>95</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>933</v>
@@ -13986,7 +13986,7 @@
         <v>87</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>933</v>
@@ -14015,7 +14015,7 @@
         <v>83</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>933</v>
@@ -14044,7 +14044,7 @@
         <v>79</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I296" s="1" t="s">
         <v>933</v>
@@ -14073,7 +14073,7 @@
         <v>79</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>933</v>
@@ -14102,7 +14102,7 @@
         <v>77</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>933</v>
@@ -14131,7 +14131,7 @@
         <v>70</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>933</v>
@@ -14160,7 +14160,7 @@
         <v>68</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>933</v>
@@ -14189,7 +14189,7 @@
         <v>67</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>933</v>
@@ -14218,7 +14218,7 @@
         <v>62</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>933</v>
@@ -14247,7 +14247,7 @@
         <v>62</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>933</v>
@@ -14276,7 +14276,7 @@
         <v>60</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>933</v>
@@ -14305,7 +14305,7 @@
         <v>60</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I305" s="1" t="s">
         <v>933</v>
@@ -14334,7 +14334,7 @@
         <v>59</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>933</v>
@@ -14363,7 +14363,7 @@
         <v>57</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>933</v>
@@ -14392,7 +14392,7 @@
         <v>55</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I308" s="1" t="s">
         <v>933</v>
@@ -14421,7 +14421,7 @@
         <v>54</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>933</v>
@@ -14450,7 +14450,7 @@
         <v>54</v>
       </c>
       <c r="H310">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>933</v>
@@ -14479,7 +14479,7 @@
         <v>49</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>933</v>
@@ -14508,7 +14508,7 @@
         <v>48</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>933</v>
@@ -14537,7 +14537,7 @@
         <v>47</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>933</v>
@@ -14566,7 +14566,7 @@
         <v>46</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I314" s="1" t="s">
         <v>933</v>
@@ -14595,7 +14595,7 @@
         <v>44</v>
       </c>
       <c r="H315">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I315" s="1" t="s">
         <v>933</v>
@@ -14624,7 +14624,7 @@
         <v>42</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>933</v>
@@ -14653,7 +14653,7 @@
         <v>36</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>933</v>
@@ -14682,7 +14682,7 @@
         <v>36</v>
       </c>
       <c r="H318">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>933</v>
@@ -14711,7 +14711,7 @@
         <v>31</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>933</v>
@@ -14740,7 +14740,7 @@
         <v>30</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>933</v>
@@ -14769,7 +14769,7 @@
         <v>28</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>933</v>
@@ -14798,7 +14798,7 @@
         <v>26</v>
       </c>
       <c r="H322">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>933</v>
@@ -14827,7 +14827,7 @@
         <v>22</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I323" s="1" t="s">
         <v>933</v>
@@ -14856,7 +14856,7 @@
         <v>21</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I324" s="1" t="s">
         <v>933</v>
@@ -14885,7 +14885,7 @@
         <v>18</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>933</v>
@@ -14914,7 +14914,7 @@
         <v>18</v>
       </c>
       <c r="H326">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>933</v>
@@ -14943,7 +14943,7 @@
         <v>18</v>
       </c>
       <c r="H327">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>933</v>
@@ -14972,7 +14972,7 @@
         <v>17</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>933</v>
@@ -15001,7 +15001,7 @@
         <v>17</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>933</v>
@@ -15030,7 +15030,7 @@
         <v>15</v>
       </c>
       <c r="H330">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>933</v>
@@ -15059,7 +15059,7 @@
         <v>14</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>933</v>
@@ -15088,7 +15088,7 @@
         <v>13</v>
       </c>
       <c r="H332">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>933</v>
@@ -15117,7 +15117,7 @@
         <v>12</v>
       </c>
       <c r="H333">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>933</v>
@@ -15146,7 +15146,7 @@
         <v>12</v>
       </c>
       <c r="H334">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>933</v>
@@ -15175,7 +15175,7 @@
         <v>11</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I335" s="1" t="s">
         <v>933</v>
@@ -15204,7 +15204,7 @@
         <v>10</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>933</v>
@@ -15233,7 +15233,7 @@
         <v>10</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>933</v>
@@ -15262,7 +15262,7 @@
         <v>9</v>
       </c>
       <c r="H338">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I338" s="1" t="s">
         <v>933</v>
@@ -15291,7 +15291,7 @@
         <v>9</v>
       </c>
       <c r="H339">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>933</v>
@@ -15320,7 +15320,7 @@
         <v>9</v>
       </c>
       <c r="H340">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>933</v>
@@ -15349,7 +15349,7 @@
         <v>2534</v>
       </c>
       <c r="H341">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I341" s="1" t="s">
         <v>1146</v>
@@ -15378,7 +15378,7 @@
         <v>1564</v>
       </c>
       <c r="H342">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>1146</v>
@@ -15407,7 +15407,7 @@
         <v>846</v>
       </c>
       <c r="H343">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>1146</v>
@@ -15436,7 +15436,7 @@
         <v>774</v>
       </c>
       <c r="H344">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>1146</v>
@@ -15465,7 +15465,7 @@
         <v>495</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>1146</v>
@@ -15494,7 +15494,7 @@
         <v>379</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I346" s="1" t="s">
         <v>1146</v>
@@ -15523,7 +15523,7 @@
         <v>360</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I347" s="1" t="s">
         <v>1146</v>
@@ -15552,7 +15552,7 @@
         <v>343</v>
       </c>
       <c r="H348">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I348" s="1" t="s">
         <v>1146</v>
@@ -15581,7 +15581,7 @@
         <v>338</v>
       </c>
       <c r="H349">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>1146</v>
@@ -15610,7 +15610,7 @@
         <v>331</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I350" s="1" t="s">
         <v>1146</v>
@@ -15639,7 +15639,7 @@
         <v>329</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>1146</v>
@@ -15668,7 +15668,7 @@
         <v>310</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>1146</v>
@@ -15697,7 +15697,7 @@
         <v>296</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I353" s="1" t="s">
         <v>1146</v>
@@ -15726,7 +15726,7 @@
         <v>283</v>
       </c>
       <c r="H354">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I354" s="1" t="s">
         <v>1146</v>
@@ -15755,7 +15755,7 @@
         <v>250</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I355" s="1" t="s">
         <v>1146</v>
@@ -15784,7 +15784,7 @@
         <v>232</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I356" s="1" t="s">
         <v>1146</v>
@@ -15813,7 +15813,7 @@
         <v>210</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I357" s="1" t="s">
         <v>1146</v>
@@ -15842,7 +15842,7 @@
         <v>184</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>1146</v>
@@ -15871,7 +15871,7 @@
         <v>180</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>1146</v>
@@ -15900,7 +15900,7 @@
         <v>179</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>1146</v>
@@ -15929,7 +15929,7 @@
         <v>174</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>1146</v>
@@ -15958,7 +15958,7 @@
         <v>171</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I362" s="1" t="s">
         <v>1146</v>
@@ -15987,7 +15987,7 @@
         <v>166</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>1146</v>
@@ -16016,7 +16016,7 @@
         <v>136</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I364" s="1" t="s">
         <v>1146</v>
@@ -16045,7 +16045,7 @@
         <v>110</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>1146</v>
@@ -16074,7 +16074,7 @@
         <v>98</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>1146</v>
@@ -16103,7 +16103,7 @@
         <v>98</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>1146</v>
@@ -16132,7 +16132,7 @@
         <v>95</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I368" s="1" t="s">
         <v>1146</v>
@@ -16161,7 +16161,7 @@
         <v>95</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>1146</v>
@@ -16190,7 +16190,7 @@
         <v>88</v>
       </c>
       <c r="H370">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I370" s="1" t="s">
         <v>1146</v>
@@ -16219,7 +16219,7 @@
         <v>83</v>
       </c>
       <c r="H371">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I371" s="1" t="s">
         <v>1146</v>
@@ -16248,7 +16248,7 @@
         <v>77</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I372" s="1" t="s">
         <v>1146</v>
@@ -16277,7 +16277,7 @@
         <v>77</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I373" s="1" t="s">
         <v>1146</v>
@@ -16306,7 +16306,7 @@
         <v>75</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I374" s="1" t="s">
         <v>1146</v>
@@ -16335,7 +16335,7 @@
         <v>61</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I375" s="1" t="s">
         <v>1146</v>
@@ -16364,7 +16364,7 @@
         <v>61</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I376" s="1" t="s">
         <v>1146</v>
@@ -16393,7 +16393,7 @@
         <v>57</v>
       </c>
       <c r="H377">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I377" s="1" t="s">
         <v>1146</v>
@@ -16422,7 +16422,7 @@
         <v>55</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I378" s="1" t="s">
         <v>1146</v>
@@ -16451,7 +16451,7 @@
         <v>50</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I379" s="1" t="s">
         <v>1146</v>
@@ -16480,7 +16480,7 @@
         <v>48</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I380" s="1" t="s">
         <v>1146</v>
@@ -16509,7 +16509,7 @@
         <v>42</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I381" s="1" t="s">
         <v>1146</v>
@@ -16538,7 +16538,7 @@
         <v>40</v>
       </c>
       <c r="H382">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I382" s="1" t="s">
         <v>1146</v>
@@ -16567,7 +16567,7 @@
         <v>39</v>
       </c>
       <c r="H383">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>1146</v>
@@ -16596,7 +16596,7 @@
         <v>39</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I384" s="1" t="s">
         <v>1146</v>
@@ -16625,7 +16625,7 @@
         <v>39</v>
       </c>
       <c r="H385">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I385" s="1" t="s">
         <v>1146</v>
@@ -16654,7 +16654,7 @@
         <v>37</v>
       </c>
       <c r="H386">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I386" s="1" t="s">
         <v>1146</v>
@@ -16683,7 +16683,7 @@
         <v>36</v>
       </c>
       <c r="H387">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I387" s="1" t="s">
         <v>1146</v>
@@ -16712,7 +16712,7 @@
         <v>36</v>
       </c>
       <c r="H388">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I388" s="1" t="s">
         <v>1146</v>
@@ -16741,7 +16741,7 @@
         <v>31</v>
       </c>
       <c r="H389">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I389" s="1" t="s">
         <v>1146</v>
@@ -16770,7 +16770,7 @@
         <v>28</v>
       </c>
       <c r="H390">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I390" s="1" t="s">
         <v>1146</v>
@@ -16799,7 +16799,7 @@
         <v>26</v>
       </c>
       <c r="H391">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I391" s="1" t="s">
         <v>1146</v>
@@ -16828,7 +16828,7 @@
         <v>25</v>
       </c>
       <c r="H392">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I392" s="1" t="s">
         <v>1146</v>
@@ -16857,7 +16857,7 @@
         <v>24</v>
       </c>
       <c r="H393">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I393" s="1" t="s">
         <v>1146</v>
@@ -16886,7 +16886,7 @@
         <v>24</v>
       </c>
       <c r="H394">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I394" s="1" t="s">
         <v>1146</v>
@@ -16915,7 +16915,7 @@
         <v>23</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I395" s="1" t="s">
         <v>1146</v>
@@ -16944,7 +16944,7 @@
         <v>23</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I396" s="1" t="s">
         <v>1146</v>
@@ -16973,7 +16973,7 @@
         <v>20</v>
       </c>
       <c r="H397">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I397" s="1" t="s">
         <v>1146</v>
@@ -17002,7 +17002,7 @@
         <v>19</v>
       </c>
       <c r="H398">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I398" s="1" t="s">
         <v>1146</v>
@@ -17031,7 +17031,7 @@
         <v>17</v>
       </c>
       <c r="H399">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I399" s="1" t="s">
         <v>1146</v>
@@ -17060,7 +17060,7 @@
         <v>12</v>
       </c>
       <c r="H400">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>1146</v>
@@ -17089,7 +17089,7 @@
         <v>10</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I401" s="1" t="s">
         <v>1146</v>
@@ -17118,7 +17118,7 @@
         <v>10</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I402" s="1" t="s">
         <v>1146</v>
@@ -17147,7 +17147,7 @@
         <v>10</v>
       </c>
       <c r="H403">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>1146</v>
@@ -17176,7 +17176,7 @@
         <v>9</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I404" s="1" t="s">
         <v>1146</v>
@@ -17205,7 +17205,7 @@
         <v>9</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I405" s="1" t="s">
         <v>1146</v>
@@ -17234,7 +17234,7 @@
         <v>8</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I406" s="1" t="s">
         <v>1146</v>
@@ -17263,7 +17263,7 @@
         <v>7</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I407" s="1" t="s">
         <v>1146</v>
@@ -17292,7 +17292,7 @@
         <v>7</v>
       </c>
       <c r="H408">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I408" s="1" t="s">
         <v>1146</v>
@@ -17321,7 +17321,7 @@
         <v>7</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I409" s="1" t="s">
         <v>1146</v>
@@ -17350,7 +17350,7 @@
         <v>6</v>
       </c>
       <c r="H410">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I410" s="1" t="s">
         <v>1146</v>
@@ -17379,7 +17379,7 @@
         <v>6</v>
       </c>
       <c r="H411">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I411" s="1" t="s">
         <v>1146</v>
@@ -17408,7 +17408,7 @@
         <v>5</v>
       </c>
       <c r="H412">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I412" s="1" t="s">
         <v>1146</v>
@@ -17437,7 +17437,7 @@
         <v>4</v>
       </c>
       <c r="H413">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I413" s="1" t="s">
         <v>1146</v>
@@ -17466,7 +17466,7 @@
         <v>4</v>
       </c>
       <c r="H414">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I414" s="1" t="s">
         <v>1146</v>
@@ -17495,7 +17495,7 @@
         <v>3</v>
       </c>
       <c r="H415">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I415" s="1" t="s">
         <v>1146</v>
@@ -17524,7 +17524,7 @@
         <v>3</v>
       </c>
       <c r="H416">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I416" s="1" t="s">
         <v>1146</v>
@@ -17553,7 +17553,7 @@
         <v>3</v>
       </c>
       <c r="H417">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I417" s="1" t="s">
         <v>1146</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="H418">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I418" s="1" t="s">
         <v>1146</v>
@@ -17611,7 +17611,7 @@
         <v>1</v>
       </c>
       <c r="H419">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I419" s="1" t="s">
         <v>1146</v>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I420" s="1" t="s">
         <v>1146</v>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I421" s="1" t="s">
         <v>1146</v>
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I422" s="1" t="s">
         <v>1146</v>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="H423">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I423" s="1" t="s">
         <v>1146</v>
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I424" s="1" t="s">
         <v>1146</v>
@@ -17785,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I425" s="1" t="s">
         <v>1146</v>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I426" s="1" t="s">
         <v>1146</v>
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I427" s="1" t="s">
         <v>1146</v>
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I428" s="1" t="s">
         <v>1146</v>
@@ -17901,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I429" s="1" t="s">
         <v>1146</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I430" s="1" t="s">
         <v>1146</v>
@@ -17959,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I431" s="1" t="s">
         <v>1146</v>
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I432" s="1" t="s">
         <v>1146</v>
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I433" s="1" t="s">
         <v>1146</v>
@@ -18046,7 +18046,7 @@
         <v>2810</v>
       </c>
       <c r="H434">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I434" s="1" t="s">
         <v>1313</v>
@@ -18075,7 +18075,7 @@
         <v>1131</v>
       </c>
       <c r="H435">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I435" s="1" t="s">
         <v>1313</v>
@@ -18104,7 +18104,7 @@
         <v>734</v>
       </c>
       <c r="H436">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I436" s="1" t="s">
         <v>1313</v>
@@ -18133,7 +18133,7 @@
         <v>588</v>
       </c>
       <c r="H437">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I437" s="1" t="s">
         <v>1313</v>
@@ -18162,7 +18162,7 @@
         <v>483</v>
       </c>
       <c r="H438">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I438" s="1" t="s">
         <v>1313</v>
@@ -18191,7 +18191,7 @@
         <v>431</v>
       </c>
       <c r="H439">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I439" s="1" t="s">
         <v>1313</v>
@@ -18220,7 +18220,7 @@
         <v>357</v>
       </c>
       <c r="H440">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I440" s="1" t="s">
         <v>1313</v>
@@ -18249,7 +18249,7 @@
         <v>255</v>
       </c>
       <c r="H441">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I441" s="1" t="s">
         <v>1313</v>
@@ -18278,7 +18278,7 @@
         <v>249</v>
       </c>
       <c r="H442">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I442" s="1" t="s">
         <v>1313</v>
@@ -18307,7 +18307,7 @@
         <v>246</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I443" s="1" t="s">
         <v>1313</v>
@@ -18336,7 +18336,7 @@
         <v>236</v>
       </c>
       <c r="H444">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I444" s="1" t="s">
         <v>1313</v>
@@ -18365,7 +18365,7 @@
         <v>185</v>
       </c>
       <c r="H445">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I445" s="1" t="s">
         <v>1313</v>
@@ -18394,7 +18394,7 @@
         <v>184</v>
       </c>
       <c r="H446">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I446" s="1" t="s">
         <v>1313</v>
@@ -18423,7 +18423,7 @@
         <v>166</v>
       </c>
       <c r="H447">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I447" s="1" t="s">
         <v>1313</v>
@@ -18452,7 +18452,7 @@
         <v>165</v>
       </c>
       <c r="H448">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I448" s="1" t="s">
         <v>1313</v>
@@ -18481,7 +18481,7 @@
         <v>163</v>
       </c>
       <c r="H449">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I449" s="1" t="s">
         <v>1313</v>
@@ -18510,7 +18510,7 @@
         <v>148</v>
       </c>
       <c r="H450">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I450" s="1" t="s">
         <v>1313</v>
@@ -18539,7 +18539,7 @@
         <v>137</v>
       </c>
       <c r="H451">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I451" s="1" t="s">
         <v>1313</v>
@@ -18568,7 +18568,7 @@
         <v>133</v>
       </c>
       <c r="H452">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I452" s="1" t="s">
         <v>1313</v>
@@ -18597,7 +18597,7 @@
         <v>115</v>
       </c>
       <c r="H453">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I453" s="1" t="s">
         <v>1313</v>
@@ -18626,7 +18626,7 @@
         <v>89</v>
       </c>
       <c r="H454">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I454" s="1" t="s">
         <v>1313</v>
@@ -18655,7 +18655,7 @@
         <v>89</v>
       </c>
       <c r="H455">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I455" s="1" t="s">
         <v>1313</v>
@@ -18684,7 +18684,7 @@
         <v>86</v>
       </c>
       <c r="H456">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I456" s="1" t="s">
         <v>1313</v>
@@ -18713,7 +18713,7 @@
         <v>85</v>
       </c>
       <c r="H457">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I457" s="1" t="s">
         <v>1313</v>
@@ -18742,7 +18742,7 @@
         <v>83</v>
       </c>
       <c r="H458">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I458" s="1" t="s">
         <v>1313</v>
@@ -18771,7 +18771,7 @@
         <v>77</v>
       </c>
       <c r="H459">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I459" s="1" t="s">
         <v>1313</v>
@@ -18800,7 +18800,7 @@
         <v>60</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I460" s="1" t="s">
         <v>1313</v>
@@ -18829,7 +18829,7 @@
         <v>55</v>
       </c>
       <c r="H461">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I461" s="1" t="s">
         <v>1313</v>
@@ -18858,7 +18858,7 @@
         <v>54</v>
       </c>
       <c r="H462">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I462" s="1" t="s">
         <v>1313</v>
@@ -18887,7 +18887,7 @@
         <v>49</v>
       </c>
       <c r="H463">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I463" s="1" t="s">
         <v>1313</v>
@@ -18916,7 +18916,7 @@
         <v>44</v>
       </c>
       <c r="H464">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I464" s="1" t="s">
         <v>1313</v>
@@ -18945,7 +18945,7 @@
         <v>44</v>
       </c>
       <c r="H465">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I465" s="1" t="s">
         <v>1313</v>
@@ -18974,7 +18974,7 @@
         <v>37</v>
       </c>
       <c r="H466">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I466" s="1" t="s">
         <v>1313</v>
@@ -19003,7 +19003,7 @@
         <v>30</v>
       </c>
       <c r="H467">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I467" s="1" t="s">
         <v>1313</v>
@@ -19032,7 +19032,7 @@
         <v>28</v>
       </c>
       <c r="H468">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I468" s="1" t="s">
         <v>1313</v>
@@ -19061,7 +19061,7 @@
         <v>28</v>
       </c>
       <c r="H469">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I469" s="1" t="s">
         <v>1313</v>
@@ -19090,7 +19090,7 @@
         <v>25</v>
       </c>
       <c r="H470">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I470" s="1" t="s">
         <v>1313</v>
@@ -19119,7 +19119,7 @@
         <v>22</v>
       </c>
       <c r="H471">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I471" s="1" t="s">
         <v>1313</v>
@@ -19148,7 +19148,7 @@
         <v>18</v>
       </c>
       <c r="H472">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I472" s="1" t="s">
         <v>1313</v>
@@ -19177,7 +19177,7 @@
         <v>17</v>
       </c>
       <c r="H473">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I473" s="1" t="s">
         <v>1313</v>
@@ -19206,7 +19206,7 @@
         <v>17</v>
       </c>
       <c r="H474">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I474" s="1" t="s">
         <v>1313</v>
@@ -19235,7 +19235,7 @@
         <v>13</v>
       </c>
       <c r="H475">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I475" s="1" t="s">
         <v>1313</v>
@@ -19264,7 +19264,7 @@
         <v>12</v>
       </c>
       <c r="H476">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I476" s="1" t="s">
         <v>1313</v>
@@ -19293,7 +19293,7 @@
         <v>11</v>
       </c>
       <c r="H477">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I477" s="1" t="s">
         <v>1313</v>
@@ -19322,7 +19322,7 @@
         <v>10</v>
       </c>
       <c r="H478">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I478" s="1" t="s">
         <v>1313</v>
@@ -19351,7 +19351,7 @@
         <v>8</v>
       </c>
       <c r="H479">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I479" s="1" t="s">
         <v>1313</v>
@@ -19380,7 +19380,7 @@
         <v>7</v>
       </c>
       <c r="H480">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I480" s="1" t="s">
         <v>1313</v>
@@ -19409,7 +19409,7 @@
         <v>6</v>
       </c>
       <c r="H481">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I481" s="1" t="s">
         <v>1313</v>
@@ -19438,7 +19438,7 @@
         <v>6</v>
       </c>
       <c r="H482">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I482" s="1" t="s">
         <v>1313</v>
@@ -19467,7 +19467,7 @@
         <v>5</v>
       </c>
       <c r="H483">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I483" s="1" t="s">
         <v>1313</v>
@@ -19496,7 +19496,7 @@
         <v>4</v>
       </c>
       <c r="H484">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I484" s="1" t="s">
         <v>1313</v>
@@ -19525,7 +19525,7 @@
         <v>3</v>
       </c>
       <c r="H485">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I485" s="1" t="s">
         <v>1313</v>
@@ -19554,7 +19554,7 @@
         <v>2</v>
       </c>
       <c r="H486">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I486" s="1" t="s">
         <v>1313</v>
@@ -19583,7 +19583,7 @@
         <v>2</v>
       </c>
       <c r="H487">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I487" s="1" t="s">
         <v>1313</v>
@@ -19612,7 +19612,7 @@
         <v>2</v>
       </c>
       <c r="H488">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I488" s="1" t="s">
         <v>1313</v>
@@ -19641,7 +19641,7 @@
         <v>1</v>
       </c>
       <c r="H489">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I489" s="1" t="s">
         <v>1313</v>
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="H490">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I490" s="1" t="s">
         <v>1313</v>
@@ -19699,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I491" s="1" t="s">
         <v>1313</v>
@@ -19728,7 +19728,7 @@
         <v>0</v>
       </c>
       <c r="H492">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I492" s="1" t="s">
         <v>1313</v>
@@ -19757,7 +19757,7 @@
         <v>0</v>
       </c>
       <c r="H493">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I493" s="1" t="s">
         <v>1313</v>
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="H494">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I494" s="1" t="s">
         <v>1313</v>
@@ -19815,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="H495">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I495" s="1" t="s">
         <v>1313</v>
@@ -19844,7 +19844,7 @@
         <v>3609</v>
       </c>
       <c r="H496">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I496" s="1" t="s">
         <v>1351</v>
@@ -19873,7 +19873,7 @@
         <v>2203</v>
       </c>
       <c r="H497">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I497" s="1" t="s">
         <v>1351</v>
@@ -19902,7 +19902,7 @@
         <v>1368</v>
       </c>
       <c r="H498">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I498" s="1" t="s">
         <v>1351</v>
@@ -19931,7 +19931,7 @@
         <v>1292</v>
       </c>
       <c r="H499">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I499" s="1" t="s">
         <v>1351</v>
@@ -19960,7 +19960,7 @@
         <v>1192</v>
       </c>
       <c r="H500">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I500" s="1" t="s">
         <v>1351</v>
@@ -19989,7 +19989,7 @@
         <v>1140</v>
       </c>
       <c r="H501">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I501" s="1" t="s">
         <v>1351</v>
@@ -20018,7 +20018,7 @@
         <v>1129</v>
       </c>
       <c r="H502">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I502" s="1" t="s">
         <v>1351</v>
@@ -20047,7 +20047,7 @@
         <v>1127</v>
       </c>
       <c r="H503">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I503" s="1" t="s">
         <v>1351</v>
@@ -20076,7 +20076,7 @@
         <v>1004</v>
       </c>
       <c r="H504">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I504" s="1" t="s">
         <v>1351</v>
@@ -20105,7 +20105,7 @@
         <v>923</v>
       </c>
       <c r="H505">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I505" s="1" t="s">
         <v>1351</v>
@@ -20134,7 +20134,7 @@
         <v>911</v>
       </c>
       <c r="H506">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I506" s="1" t="s">
         <v>1351</v>
@@ -20163,7 +20163,7 @@
         <v>882</v>
       </c>
       <c r="H507">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>1351</v>
@@ -20192,7 +20192,7 @@
         <v>872</v>
       </c>
       <c r="H508">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I508" s="1" t="s">
         <v>1351</v>
@@ -20221,7 +20221,7 @@
         <v>848</v>
       </c>
       <c r="H509">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I509" s="1" t="s">
         <v>1351</v>
@@ -20250,7 +20250,7 @@
         <v>817</v>
       </c>
       <c r="H510">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I510" s="1" t="s">
         <v>1351</v>
@@ -20279,7 +20279,7 @@
         <v>779</v>
       </c>
       <c r="H511">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I511" s="1" t="s">
         <v>1351</v>
@@ -20308,7 +20308,7 @@
         <v>715</v>
       </c>
       <c r="H512">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I512" s="1" t="s">
         <v>1351</v>
@@ -20337,7 +20337,7 @@
         <v>707</v>
       </c>
       <c r="H513">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I513" s="1" t="s">
         <v>1351</v>
@@ -20366,7 +20366,7 @@
         <v>699</v>
       </c>
       <c r="H514">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I514" s="1" t="s">
         <v>1351</v>
@@ -20395,7 +20395,7 @@
         <v>597</v>
       </c>
       <c r="H515">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I515" s="1" t="s">
         <v>1351</v>
@@ -20424,7 +20424,7 @@
         <v>588</v>
       </c>
       <c r="H516">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I516" s="1" t="s">
         <v>1351</v>
@@ -20453,7 +20453,7 @@
         <v>556</v>
       </c>
       <c r="H517">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I517" s="1" t="s">
         <v>1351</v>
@@ -20482,7 +20482,7 @@
         <v>518</v>
       </c>
       <c r="H518">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I518" s="1" t="s">
         <v>1351</v>
@@ -20511,7 +20511,7 @@
         <v>431</v>
       </c>
       <c r="H519">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I519" s="1" t="s">
         <v>1351</v>
@@ -20540,7 +20540,7 @@
         <v>402</v>
       </c>
       <c r="H520">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>1351</v>
@@ -20569,7 +20569,7 @@
         <v>401</v>
       </c>
       <c r="H521">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>1351</v>
@@ -20598,7 +20598,7 @@
         <v>362</v>
       </c>
       <c r="H522">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I522" s="1" t="s">
         <v>1351</v>
@@ -20627,7 +20627,7 @@
         <v>356</v>
       </c>
       <c r="H523">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I523" s="1" t="s">
         <v>1351</v>
@@ -20656,7 +20656,7 @@
         <v>351</v>
       </c>
       <c r="H524">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I524" s="1" t="s">
         <v>1351</v>
@@ -20685,7 +20685,7 @@
         <v>351</v>
       </c>
       <c r="H525">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>1351</v>
@@ -20714,7 +20714,7 @@
         <v>338</v>
       </c>
       <c r="H526">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I526" s="1" t="s">
         <v>1351</v>
@@ -20743,7 +20743,7 @@
         <v>334</v>
       </c>
       <c r="H527">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I527" s="1" t="s">
         <v>1351</v>
@@ -20772,7 +20772,7 @@
         <v>328</v>
       </c>
       <c r="H528">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I528" s="1" t="s">
         <v>1351</v>
@@ -20801,7 +20801,7 @@
         <v>328</v>
       </c>
       <c r="H529">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I529" s="1" t="s">
         <v>1351</v>
@@ -20830,7 +20830,7 @@
         <v>324</v>
       </c>
       <c r="H530">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I530" s="1" t="s">
         <v>1351</v>
@@ -20859,7 +20859,7 @@
         <v>317</v>
       </c>
       <c r="H531">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I531" s="1" t="s">
         <v>1351</v>
@@ -20888,7 +20888,7 @@
         <v>314</v>
       </c>
       <c r="H532">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I532" s="1" t="s">
         <v>1351</v>
@@ -20917,7 +20917,7 @@
         <v>312</v>
       </c>
       <c r="H533">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I533" s="1" t="s">
         <v>1351</v>
@@ -20946,7 +20946,7 @@
         <v>306</v>
       </c>
       <c r="H534">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I534" s="1" t="s">
         <v>1351</v>
@@ -20975,7 +20975,7 @@
         <v>298</v>
       </c>
       <c r="H535">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I535" s="1" t="s">
         <v>1351</v>
@@ -21004,7 +21004,7 @@
         <v>295</v>
       </c>
       <c r="H536">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I536" s="1" t="s">
         <v>1351</v>
@@ -21033,7 +21033,7 @@
         <v>293</v>
       </c>
       <c r="H537">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I537" s="1" t="s">
         <v>1351</v>
@@ -21062,7 +21062,7 @@
         <v>285</v>
       </c>
       <c r="H538">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I538" s="1" t="s">
         <v>1351</v>
@@ -21091,7 +21091,7 @@
         <v>280</v>
       </c>
       <c r="H539">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I539" s="1" t="s">
         <v>1351</v>
@@ -21120,7 +21120,7 @@
         <v>277</v>
       </c>
       <c r="H540">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I540" s="1" t="s">
         <v>1351</v>
@@ -21149,7 +21149,7 @@
         <v>269</v>
       </c>
       <c r="H541">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I541" s="1" t="s">
         <v>1351</v>
@@ -21178,7 +21178,7 @@
         <v>267</v>
       </c>
       <c r="H542">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I542" s="1" t="s">
         <v>1351</v>
@@ -21207,7 +21207,7 @@
         <v>258</v>
       </c>
       <c r="H543">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I543" s="1" t="s">
         <v>1351</v>
@@ -21236,7 +21236,7 @@
         <v>256</v>
       </c>
       <c r="H544">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I544" s="1" t="s">
         <v>1351</v>
@@ -21265,7 +21265,7 @@
         <v>255</v>
       </c>
       <c r="H545">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I545" s="1" t="s">
         <v>1351</v>
@@ -21294,7 +21294,7 @@
         <v>254</v>
       </c>
       <c r="H546">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I546" s="1" t="s">
         <v>1351</v>
@@ -21323,7 +21323,7 @@
         <v>252</v>
       </c>
       <c r="H547">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I547" s="1" t="s">
         <v>1351</v>
@@ -21352,7 +21352,7 @@
         <v>251</v>
       </c>
       <c r="H548">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I548" s="1" t="s">
         <v>1351</v>
@@ -21381,7 +21381,7 @@
         <v>250</v>
       </c>
       <c r="H549">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I549" s="1" t="s">
         <v>1351</v>
@@ -21410,7 +21410,7 @@
         <v>248</v>
       </c>
       <c r="H550">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I550" s="1" t="s">
         <v>1351</v>
@@ -21439,7 +21439,7 @@
         <v>244</v>
       </c>
       <c r="H551">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I551" s="1" t="s">
         <v>1351</v>
@@ -21468,7 +21468,7 @@
         <v>235</v>
       </c>
       <c r="H552">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I552" s="1" t="s">
         <v>1351</v>
@@ -21497,7 +21497,7 @@
         <v>226</v>
       </c>
       <c r="H553">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I553" s="1" t="s">
         <v>1351</v>
@@ -21526,7 +21526,7 @@
         <v>224</v>
       </c>
       <c r="H554">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I554" s="1" t="s">
         <v>1351</v>
@@ -21555,7 +21555,7 @@
         <v>211</v>
       </c>
       <c r="H555">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I555" s="1" t="s">
         <v>1351</v>
@@ -21584,7 +21584,7 @@
         <v>210</v>
       </c>
       <c r="H556">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I556" s="1" t="s">
         <v>1351</v>
@@ -21613,7 +21613,7 @@
         <v>210</v>
       </c>
       <c r="H557">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I557" s="1" t="s">
         <v>1351</v>
@@ -21642,7 +21642,7 @@
         <v>209</v>
       </c>
       <c r="H558">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I558" s="1" t="s">
         <v>1351</v>
@@ -21671,7 +21671,7 @@
         <v>176</v>
       </c>
       <c r="H559">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I559" s="1" t="s">
         <v>1351</v>
@@ -21700,7 +21700,7 @@
         <v>167</v>
       </c>
       <c r="H560">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I560" s="1" t="s">
         <v>1351</v>
@@ -21729,7 +21729,7 @@
         <v>166</v>
       </c>
       <c r="H561">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I561" s="1" t="s">
         <v>1351</v>
@@ -21758,7 +21758,7 @@
         <v>165</v>
       </c>
       <c r="H562">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I562" s="1" t="s">
         <v>1351</v>
@@ -21787,7 +21787,7 @@
         <v>165</v>
       </c>
       <c r="H563">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I563" s="1" t="s">
         <v>1351</v>
@@ -21816,7 +21816,7 @@
         <v>162</v>
       </c>
       <c r="H564">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I564" s="1" t="s">
         <v>1351</v>
@@ -21845,7 +21845,7 @@
         <v>156</v>
       </c>
       <c r="H565">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I565" s="1" t="s">
         <v>1351</v>
@@ -21874,7 +21874,7 @@
         <v>152</v>
       </c>
       <c r="H566">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I566" s="1" t="s">
         <v>1351</v>
@@ -21903,7 +21903,7 @@
         <v>148</v>
       </c>
       <c r="H567">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I567" s="1" t="s">
         <v>1351</v>
@@ -21932,7 +21932,7 @@
         <v>147</v>
       </c>
       <c r="H568">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I568" s="1" t="s">
         <v>1351</v>
@@ -21961,7 +21961,7 @@
         <v>139</v>
       </c>
       <c r="H569">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I569" s="1" t="s">
         <v>1351</v>
@@ -21990,7 +21990,7 @@
         <v>138</v>
       </c>
       <c r="H570">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I570" s="1" t="s">
         <v>1351</v>
@@ -22019,7 +22019,7 @@
         <v>137</v>
       </c>
       <c r="H571">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I571" s="1" t="s">
         <v>1351</v>
@@ -22048,7 +22048,7 @@
         <v>136</v>
       </c>
       <c r="H572">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I572" s="1" t="s">
         <v>1351</v>
@@ -22077,7 +22077,7 @@
         <v>134</v>
       </c>
       <c r="H573">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I573" s="1" t="s">
         <v>1351</v>
@@ -22106,7 +22106,7 @@
         <v>134</v>
       </c>
       <c r="H574">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I574" s="1" t="s">
         <v>1351</v>
@@ -22135,7 +22135,7 @@
         <v>132</v>
       </c>
       <c r="H575">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I575" s="1" t="s">
         <v>1351</v>
@@ -22164,7 +22164,7 @@
         <v>126</v>
       </c>
       <c r="H576">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I576" s="1" t="s">
         <v>1351</v>
@@ -22193,7 +22193,7 @@
         <v>122</v>
       </c>
       <c r="H577">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I577" s="1" t="s">
         <v>1351</v>
@@ -22222,7 +22222,7 @@
         <v>121</v>
       </c>
       <c r="H578">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I578" s="1" t="s">
         <v>1351</v>
@@ -22251,7 +22251,7 @@
         <v>111</v>
       </c>
       <c r="H579">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I579" s="1" t="s">
         <v>1351</v>
@@ -22280,7 +22280,7 @@
         <v>107</v>
       </c>
       <c r="H580">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I580" s="1" t="s">
         <v>1351</v>
@@ -22309,7 +22309,7 @@
         <v>107</v>
       </c>
       <c r="H581">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I581" s="1" t="s">
         <v>1351</v>
@@ -22338,7 +22338,7 @@
         <v>101</v>
       </c>
       <c r="H582">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I582" s="1" t="s">
         <v>1351</v>
@@ -22367,7 +22367,7 @@
         <v>98</v>
       </c>
       <c r="H583">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I583" s="1" t="s">
         <v>1351</v>
@@ -22396,7 +22396,7 @@
         <v>95</v>
       </c>
       <c r="H584">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I584" s="1" t="s">
         <v>1351</v>
@@ -22425,7 +22425,7 @@
         <v>77</v>
       </c>
       <c r="H585">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I585" s="1" t="s">
         <v>1351</v>
@@ -22454,7 +22454,7 @@
         <v>74</v>
       </c>
       <c r="H586">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I586" s="1" t="s">
         <v>1351</v>
@@ -22483,7 +22483,7 @@
         <v>66</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I587" s="1" t="s">
         <v>1351</v>
@@ -22512,7 +22512,7 @@
         <v>49</v>
       </c>
       <c r="H588">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I588" s="1" t="s">
         <v>1351</v>
@@ -22541,7 +22541,7 @@
         <v>47</v>
       </c>
       <c r="H589">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I589" s="1" t="s">
         <v>1351</v>
@@ -22570,7 +22570,7 @@
         <v>44</v>
       </c>
       <c r="H590">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I590" s="1" t="s">
         <v>1351</v>
@@ -22599,7 +22599,7 @@
         <v>30</v>
       </c>
       <c r="H591">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I591" s="1" t="s">
         <v>1351</v>
@@ -22628,7 +22628,7 @@
         <v>10</v>
       </c>
       <c r="H592">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I592" s="1" t="s">
         <v>1351</v>
@@ -22657,7 +22657,7 @@
         <v>10</v>
       </c>
       <c r="H593">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I593" s="1" t="s">
         <v>1351</v>
@@ -22686,7 +22686,7 @@
         <v>5</v>
       </c>
       <c r="H594">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I594" s="1" t="s">
         <v>1351</v>
@@ -22715,7 +22715,7 @@
         <v>4</v>
       </c>
       <c r="H595">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I595" s="1" t="s">
         <v>1351</v>
@@ -22744,7 +22744,7 @@
         <v>1</v>
       </c>
       <c r="H596">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I596" s="1" t="s">
         <v>1351</v>
@@ -22773,7 +22773,7 @@
         <v>1195</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I597" s="1" t="s">
         <v>1507</v>
@@ -22802,7 +22802,7 @@
         <v>925</v>
       </c>
       <c r="H598">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I598" s="1" t="s">
         <v>1507</v>
@@ -22831,7 +22831,7 @@
         <v>907</v>
       </c>
       <c r="H599">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I599" s="1" t="s">
         <v>1507</v>
@@ -22860,7 +22860,7 @@
         <v>872</v>
       </c>
       <c r="H600">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I600" s="1" t="s">
         <v>1507</v>
@@ -22889,7 +22889,7 @@
         <v>846</v>
       </c>
       <c r="H601">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I601" s="1" t="s">
         <v>1507</v>
@@ -22918,7 +22918,7 @@
         <v>774</v>
       </c>
       <c r="H602">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I602" s="1" t="s">
         <v>1507</v>
@@ -22947,7 +22947,7 @@
         <v>744</v>
       </c>
       <c r="H603">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I603" s="1" t="s">
         <v>1507</v>
@@ -22976,7 +22976,7 @@
         <v>715</v>
       </c>
       <c r="H604">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I604" s="1" t="s">
         <v>1507</v>
@@ -23005,7 +23005,7 @@
         <v>495</v>
       </c>
       <c r="H605">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I605" s="1" t="s">
         <v>1507</v>
@@ -23034,7 +23034,7 @@
         <v>390</v>
       </c>
       <c r="H606">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I606" s="1" t="s">
         <v>1507</v>
@@ -23063,7 +23063,7 @@
         <v>379</v>
       </c>
       <c r="H607">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I607" s="1" t="s">
         <v>1507</v>
@@ -23092,7 +23092,7 @@
         <v>365</v>
       </c>
       <c r="H608">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I608" s="1" t="s">
         <v>1507</v>
@@ -23121,7 +23121,7 @@
         <v>351</v>
       </c>
       <c r="H609">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I609" s="1" t="s">
         <v>1507</v>
@@ -23150,7 +23150,7 @@
         <v>343</v>
       </c>
       <c r="H610">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I610" s="1" t="s">
         <v>1507</v>
@@ -23179,7 +23179,7 @@
         <v>331</v>
       </c>
       <c r="H611">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I611" s="1" t="s">
         <v>1507</v>
@@ -23208,7 +23208,7 @@
         <v>310</v>
       </c>
       <c r="H612">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I612" s="1" t="s">
         <v>1507</v>
@@ -23237,7 +23237,7 @@
         <v>294</v>
       </c>
       <c r="H613">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I613" s="1" t="s">
         <v>1507</v>
@@ -23266,7 +23266,7 @@
         <v>288</v>
       </c>
       <c r="H614">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I614" s="1" t="s">
         <v>1507</v>
@@ -23295,7 +23295,7 @@
         <v>288</v>
       </c>
       <c r="H615">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I615" s="1" t="s">
         <v>1507</v>
@@ -23324,7 +23324,7 @@
         <v>233</v>
       </c>
       <c r="H616">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I616" s="1" t="s">
         <v>1507</v>
@@ -23353,7 +23353,7 @@
         <v>230</v>
       </c>
       <c r="H617">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I617" s="1" t="s">
         <v>1507</v>
@@ -23382,7 +23382,7 @@
         <v>208</v>
       </c>
       <c r="H618">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I618" s="1" t="s">
         <v>1507</v>
@@ -23411,7 +23411,7 @@
         <v>187</v>
       </c>
       <c r="H619">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I619" s="1" t="s">
         <v>1507</v>
@@ -23440,7 +23440,7 @@
         <v>184</v>
       </c>
       <c r="H620">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I620" s="1" t="s">
         <v>1507</v>
@@ -23469,7 +23469,7 @@
         <v>182</v>
       </c>
       <c r="H621">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I621" s="1" t="s">
         <v>1507</v>
@@ -23498,7 +23498,7 @@
         <v>179</v>
       </c>
       <c r="H622">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I622" s="1" t="s">
         <v>1507</v>
@@ -23527,7 +23527,7 @@
         <v>166</v>
       </c>
       <c r="H623">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I623" s="1" t="s">
         <v>1507</v>
@@ -23556,7 +23556,7 @@
         <v>166</v>
       </c>
       <c r="H624">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I624" s="1" t="s">
         <v>1507</v>
@@ -23585,7 +23585,7 @@
         <v>163</v>
       </c>
       <c r="H625">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I625" s="1" t="s">
         <v>1507</v>
@@ -23614,7 +23614,7 @@
         <v>147</v>
       </c>
       <c r="H626">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I626" s="1" t="s">
         <v>1507</v>
@@ -23643,7 +23643,7 @@
         <v>139</v>
       </c>
       <c r="H627">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I627" s="1" t="s">
         <v>1507</v>
@@ -23672,7 +23672,7 @@
         <v>138</v>
       </c>
       <c r="H628">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I628" s="1" t="s">
         <v>1507</v>
@@ -23701,7 +23701,7 @@
         <v>134</v>
       </c>
       <c r="H629">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I629" s="1" t="s">
         <v>1507</v>
@@ -23730,7 +23730,7 @@
         <v>131</v>
       </c>
       <c r="H630">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I630" s="1" t="s">
         <v>1507</v>
@@ -23759,7 +23759,7 @@
         <v>125</v>
       </c>
       <c r="H631">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I631" s="1" t="s">
         <v>1507</v>
@@ -23788,7 +23788,7 @@
         <v>114</v>
       </c>
       <c r="H632">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I632" s="1" t="s">
         <v>1507</v>
@@ -23817,7 +23817,7 @@
         <v>101</v>
       </c>
       <c r="H633">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I633" s="1" t="s">
         <v>1507</v>
@@ -23846,7 +23846,7 @@
         <v>98</v>
       </c>
       <c r="H634">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I634" s="1" t="s">
         <v>1507</v>
@@ -23875,7 +23875,7 @@
         <v>98</v>
       </c>
       <c r="H635">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I635" s="1" t="s">
         <v>1507</v>
@@ -23904,7 +23904,7 @@
         <v>85</v>
       </c>
       <c r="H636">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I636" s="1" t="s">
         <v>1507</v>
@@ -23933,7 +23933,7 @@
         <v>77</v>
       </c>
       <c r="H637">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I637" s="1" t="s">
         <v>1507</v>
@@ -23962,7 +23962,7 @@
         <v>77</v>
       </c>
       <c r="H638">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I638" s="1" t="s">
         <v>1507</v>
@@ -23991,7 +23991,7 @@
         <v>69</v>
       </c>
       <c r="H639">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I639" s="1" t="s">
         <v>1507</v>
@@ -24020,7 +24020,7 @@
         <v>67</v>
       </c>
       <c r="H640">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I640" s="1" t="s">
         <v>1507</v>
@@ -24049,7 +24049,7 @@
         <v>67</v>
       </c>
       <c r="H641">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I641" s="1" t="s">
         <v>1507</v>
@@ -24078,7 +24078,7 @@
         <v>63</v>
       </c>
       <c r="H642">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I642" s="1" t="s">
         <v>1507</v>
@@ -24107,7 +24107,7 @@
         <v>61</v>
       </c>
       <c r="H643">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I643" s="1" t="s">
         <v>1507</v>
@@ -24136,7 +24136,7 @@
         <v>61</v>
       </c>
       <c r="H644">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I644" s="1" t="s">
         <v>1507</v>
@@ -24165,7 +24165,7 @@
         <v>59</v>
       </c>
       <c r="H645">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I645" s="1" t="s">
         <v>1507</v>
@@ -24194,7 +24194,7 @@
         <v>50</v>
       </c>
       <c r="H646">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I646" s="1" t="s">
         <v>1507</v>
@@ -24223,7 +24223,7 @@
         <v>49</v>
       </c>
       <c r="H647">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I647" s="1" t="s">
         <v>1507</v>
@@ -24252,7 +24252,7 @@
         <v>45</v>
       </c>
       <c r="H648">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I648" s="1" t="s">
         <v>1507</v>
@@ -24281,7 +24281,7 @@
         <v>42</v>
       </c>
       <c r="H649">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I649" s="1" t="s">
         <v>1507</v>
@@ -24310,7 +24310,7 @@
         <v>42</v>
       </c>
       <c r="H650">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I650" s="1" t="s">
         <v>1507</v>
@@ -24339,7 +24339,7 @@
         <v>41</v>
       </c>
       <c r="H651">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I651" s="1" t="s">
         <v>1507</v>
@@ -24368,7 +24368,7 @@
         <v>39</v>
       </c>
       <c r="H652">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I652" s="1" t="s">
         <v>1507</v>
@@ -24397,7 +24397,7 @@
         <v>38</v>
       </c>
       <c r="H653">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I653" s="1" t="s">
         <v>1507</v>
@@ -24426,7 +24426,7 @@
         <v>31</v>
       </c>
       <c r="H654">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I654" s="1" t="s">
         <v>1507</v>
@@ -24455,7 +24455,7 @@
         <v>30</v>
       </c>
       <c r="H655">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I655" s="1" t="s">
         <v>1507</v>
@@ -24484,7 +24484,7 @@
         <v>29</v>
       </c>
       <c r="H656">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I656" s="1" t="s">
         <v>1507</v>
@@ -24513,7 +24513,7 @@
         <v>21</v>
       </c>
       <c r="H657">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I657" s="1" t="s">
         <v>1507</v>
@@ -24542,7 +24542,7 @@
         <v>20</v>
       </c>
       <c r="H658">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I658" s="1" t="s">
         <v>1507</v>
@@ -24571,7 +24571,7 @@
         <v>20</v>
       </c>
       <c r="H659">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I659" s="1" t="s">
         <v>1507</v>
@@ -24600,7 +24600,7 @@
         <v>20</v>
       </c>
       <c r="H660">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I660" s="1" t="s">
         <v>1507</v>
@@ -24629,7 +24629,7 @@
         <v>18</v>
       </c>
       <c r="H661">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I661" s="1" t="s">
         <v>1507</v>
@@ -24658,7 +24658,7 @@
         <v>18</v>
       </c>
       <c r="H662">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I662" s="1" t="s">
         <v>1507</v>
@@ -24687,7 +24687,7 @@
         <v>17</v>
       </c>
       <c r="H663">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I663" s="1" t="s">
         <v>1507</v>
@@ -24716,7 +24716,7 @@
         <v>17</v>
       </c>
       <c r="H664">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I664" s="1" t="s">
         <v>1507</v>
@@ -24745,7 +24745,7 @@
         <v>16</v>
       </c>
       <c r="H665">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I665" s="1" t="s">
         <v>1507</v>
@@ -24774,7 +24774,7 @@
         <v>13</v>
       </c>
       <c r="H666">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I666" s="1" t="s">
         <v>1507</v>
@@ -24803,7 +24803,7 @@
         <v>12</v>
       </c>
       <c r="H667">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I667" s="1" t="s">
         <v>1507</v>
@@ -24832,7 +24832,7 @@
         <v>12</v>
       </c>
       <c r="H668">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I668" s="1" t="s">
         <v>1507</v>
@@ -24861,7 +24861,7 @@
         <v>11</v>
       </c>
       <c r="H669">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I669" s="1" t="s">
         <v>1507</v>
@@ -24890,7 +24890,7 @@
         <v>10</v>
       </c>
       <c r="H670">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I670" s="1" t="s">
         <v>1507</v>
@@ -24919,7 +24919,7 @@
         <v>7</v>
       </c>
       <c r="H671">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I671" s="1" t="s">
         <v>1507</v>
@@ -24948,7 +24948,7 @@
         <v>6</v>
       </c>
       <c r="H672">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I672" s="1" t="s">
         <v>1507</v>
@@ -24977,7 +24977,7 @@
         <v>6</v>
       </c>
       <c r="H673">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I673" s="1" t="s">
         <v>1507</v>
@@ -25006,7 +25006,7 @@
         <v>6</v>
       </c>
       <c r="H674">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I674" s="1" t="s">
         <v>1507</v>
@@ -25035,7 +25035,7 @@
         <v>5</v>
       </c>
       <c r="H675">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I675" s="1" t="s">
         <v>1507</v>
@@ -25064,7 +25064,7 @@
         <v>5</v>
       </c>
       <c r="H676">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I676" s="1" t="s">
         <v>1507</v>
@@ -25093,7 +25093,7 @@
         <v>4</v>
       </c>
       <c r="H677">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I677" s="1" t="s">
         <v>1507</v>
@@ -25122,7 +25122,7 @@
         <v>4</v>
       </c>
       <c r="H678">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I678" s="1" t="s">
         <v>1507</v>
@@ -25151,7 +25151,7 @@
         <v>2</v>
       </c>
       <c r="H679">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I679" s="1" t="s">
         <v>1507</v>
@@ -25180,7 +25180,7 @@
         <v>1</v>
       </c>
       <c r="H680">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I680" s="1" t="s">
         <v>1507</v>
@@ -25209,7 +25209,7 @@
         <v>0</v>
       </c>
       <c r="H681">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I681" s="1" t="s">
         <v>1507</v>
@@ -25238,7 +25238,7 @@
         <v>5</v>
       </c>
       <c r="H682">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I682" s="1" t="s">
         <v>1507</v>
@@ -25267,7 +25267,7 @@
         <v>5</v>
       </c>
       <c r="H683">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I683" s="1" t="s">
         <v>1507</v>
@@ -25296,7 +25296,7 @@
         <v>5</v>
       </c>
       <c r="H684">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I684" s="1" t="s">
         <v>1507</v>
@@ -25325,7 +25325,7 @@
         <v>5</v>
       </c>
       <c r="H685">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I685" s="1" t="s">
         <v>1507</v>
@@ -25354,7 +25354,7 @@
         <v>5</v>
       </c>
       <c r="H686">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I686" s="1" t="s">
         <v>1507</v>
@@ -25383,7 +25383,7 @@
         <v>5</v>
       </c>
       <c r="H687">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I687" s="1" t="s">
         <v>1507</v>
@@ -25412,7 +25412,7 @@
         <v>3</v>
       </c>
       <c r="H688">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I688" s="1" t="s">
         <v>1507</v>
@@ -25441,7 +25441,7 @@
         <v>3</v>
       </c>
       <c r="H689">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I689" s="1" t="s">
         <v>1507</v>
@@ -25470,7 +25470,7 @@
         <v>2</v>
       </c>
       <c r="H690">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I690" s="1" t="s">
         <v>1507</v>
@@ -25499,7 +25499,7 @@
         <v>2</v>
       </c>
       <c r="H691">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I691" s="1" t="s">
         <v>1507</v>
@@ -25528,7 +25528,7 @@
         <v>2</v>
       </c>
       <c r="H692">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I692" s="1" t="s">
         <v>1507</v>
@@ -25557,7 +25557,7 @@
         <v>2</v>
       </c>
       <c r="H693">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I693" s="1" t="s">
         <v>1507</v>
@@ -25586,7 +25586,7 @@
         <v>0</v>
       </c>
       <c r="H694">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I694" s="1" t="s">
         <v>1507</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="H695">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I695" s="1" t="s">
         <v>1507</v>
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="H696">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I696" s="1" t="s">
         <v>1507</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="H697">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I697" s="1" t="s">
         <v>1507</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="H698">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I698" s="1" t="s">
         <v>1507</v>
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="H699">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I699" s="1" t="s">
         <v>1507</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="H700">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I700" s="1" t="s">
         <v>1507</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="H701">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I701" s="1" t="s">
         <v>1507</v>
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="H702">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I702" s="1" t="s">
         <v>1507</v>
@@ -25847,7 +25847,7 @@
         <v>650</v>
       </c>
       <c r="H703">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I703" s="1" t="s">
         <v>1674</v>
@@ -25876,7 +25876,7 @@
         <v>464</v>
       </c>
       <c r="H704">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I704" s="1" t="s">
         <v>1674</v>
@@ -25905,7 +25905,7 @@
         <v>329</v>
       </c>
       <c r="H705">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I705" s="1" t="s">
         <v>1674</v>
@@ -25934,7 +25934,7 @@
         <v>327</v>
       </c>
       <c r="H706">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I706" s="1" t="s">
         <v>1674</v>
@@ -25963,7 +25963,7 @@
         <v>323</v>
       </c>
       <c r="H707">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I707" s="1" t="s">
         <v>1674</v>
@@ -25992,7 +25992,7 @@
         <v>297</v>
       </c>
       <c r="H708">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I708" s="1" t="s">
         <v>1674</v>
@@ -26021,7 +26021,7 @@
         <v>280</v>
       </c>
       <c r="H709">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I709" s="1" t="s">
         <v>1674</v>
@@ -26050,7 +26050,7 @@
         <v>270</v>
       </c>
       <c r="H710">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I710" s="1" t="s">
         <v>1674</v>
@@ -26079,7 +26079,7 @@
         <v>252</v>
       </c>
       <c r="H711">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I711" s="1" t="s">
         <v>1674</v>
@@ -26108,7 +26108,7 @@
         <v>228</v>
       </c>
       <c r="H712">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I712" s="1" t="s">
         <v>1674</v>
@@ -26137,7 +26137,7 @@
         <v>226</v>
       </c>
       <c r="H713">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I713" s="1" t="s">
         <v>1674</v>
@@ -26166,7 +26166,7 @@
         <v>185</v>
       </c>
       <c r="H714">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I714" s="1" t="s">
         <v>1674</v>
@@ -26195,7 +26195,7 @@
         <v>163</v>
       </c>
       <c r="H715">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I715" s="1" t="s">
         <v>1674</v>
@@ -26224,7 +26224,7 @@
         <v>138</v>
       </c>
       <c r="H716">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I716" s="1" t="s">
         <v>1674</v>
@@ -26253,7 +26253,7 @@
         <v>137</v>
       </c>
       <c r="H717">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I717" s="1" t="s">
         <v>1674</v>
@@ -26282,7 +26282,7 @@
         <v>131</v>
       </c>
       <c r="H718">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I718" s="1" t="s">
         <v>1674</v>
@@ -26311,7 +26311,7 @@
         <v>104</v>
       </c>
       <c r="H719">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I719" s="1" t="s">
         <v>1674</v>
@@ -26340,7 +26340,7 @@
         <v>92</v>
       </c>
       <c r="H720">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I720" s="1" t="s">
         <v>1674</v>
@@ -26369,7 +26369,7 @@
         <v>82</v>
       </c>
       <c r="H721">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I721" s="1" t="s">
         <v>1674</v>
@@ -26398,7 +26398,7 @@
         <v>78</v>
       </c>
       <c r="H722">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I722" s="1" t="s">
         <v>1674</v>
@@ -26427,7 +26427,7 @@
         <v>75</v>
       </c>
       <c r="H723">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I723" s="1" t="s">
         <v>1674</v>
@@ -26456,7 +26456,7 @@
         <v>68</v>
       </c>
       <c r="H724">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I724" s="1" t="s">
         <v>1674</v>
@@ -26485,7 +26485,7 @@
         <v>61</v>
       </c>
       <c r="H725">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I725" s="1" t="s">
         <v>1674</v>
@@ -26514,7 +26514,7 @@
         <v>58</v>
       </c>
       <c r="H726">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I726" s="1" t="s">
         <v>1674</v>
@@ -26543,7 +26543,7 @@
         <v>58</v>
       </c>
       <c r="H727">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I727" s="1" t="s">
         <v>1674</v>
@@ -26572,7 +26572,7 @@
         <v>49</v>
       </c>
       <c r="H728">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I728" s="1" t="s">
         <v>1674</v>
@@ -26601,7 +26601,7 @@
         <v>37</v>
       </c>
       <c r="H729">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I729" s="1" t="s">
         <v>1674</v>
@@ -26630,7 +26630,7 @@
         <v>33</v>
       </c>
       <c r="H730">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I730" s="1" t="s">
         <v>1674</v>
@@ -26659,7 +26659,7 @@
         <v>27</v>
       </c>
       <c r="H731">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I731" s="1" t="s">
         <v>1674</v>
@@ -26688,7 +26688,7 @@
         <v>26</v>
       </c>
       <c r="H732">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I732" s="1" t="s">
         <v>1674</v>
@@ -26717,7 +26717,7 @@
         <v>19</v>
       </c>
       <c r="H733">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I733" s="1" t="s">
         <v>1674</v>
@@ -26746,7 +26746,7 @@
         <v>17</v>
       </c>
       <c r="H734">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I734" s="1" t="s">
         <v>1674</v>
@@ -26775,7 +26775,7 @@
         <v>15</v>
       </c>
       <c r="H735">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I735" s="1" t="s">
         <v>1674</v>
@@ -26804,7 +26804,7 @@
         <v>13</v>
       </c>
       <c r="H736">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I736" s="1" t="s">
         <v>1674</v>
@@ -26833,7 +26833,7 @@
         <v>12</v>
       </c>
       <c r="H737">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I737" s="1" t="s">
         <v>1674</v>
@@ -26862,7 +26862,7 @@
         <v>11</v>
       </c>
       <c r="H738">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I738" s="1" t="s">
         <v>1674</v>
@@ -26891,7 +26891,7 @@
         <v>10</v>
       </c>
       <c r="H739">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I739" s="1" t="s">
         <v>1674</v>
@@ -26920,7 +26920,7 @@
         <v>10</v>
       </c>
       <c r="H740">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I740" s="1" t="s">
         <v>1674</v>
@@ -26949,7 +26949,7 @@
         <v>9</v>
       </c>
       <c r="H741">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I741" s="1" t="s">
         <v>1674</v>
@@ -26978,7 +26978,7 @@
         <v>8</v>
       </c>
       <c r="H742">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I742" s="1" t="s">
         <v>1674</v>
@@ -27007,7 +27007,7 @@
         <v>7</v>
       </c>
       <c r="H743">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I743" s="1" t="s">
         <v>1674</v>
@@ -27036,7 +27036,7 @@
         <v>5</v>
       </c>
       <c r="H744">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I744" s="1" t="s">
         <v>1674</v>
@@ -27065,7 +27065,7 @@
         <v>4</v>
       </c>
       <c r="H745">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I745" s="1" t="s">
         <v>1674</v>
@@ -27094,7 +27094,7 @@
         <v>3</v>
       </c>
       <c r="H746">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I746" s="1" t="s">
         <v>1674</v>
@@ -27123,7 +27123,7 @@
         <v>1</v>
       </c>
       <c r="H747">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I747" s="1" t="s">
         <v>1674</v>
@@ -27152,7 +27152,7 @@
         <v>1</v>
       </c>
       <c r="H748">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I748" s="1" t="s">
         <v>1674</v>
@@ -27181,7 +27181,7 @@
         <v>1</v>
       </c>
       <c r="H749">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I749" s="1" t="s">
         <v>1674</v>
@@ -27210,7 +27210,7 @@
         <v>1</v>
       </c>
       <c r="H750">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I750" s="1" t="s">
         <v>1674</v>
@@ -27239,7 +27239,7 @@
         <v>0</v>
       </c>
       <c r="H751">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I751" s="1" t="s">
         <v>1674</v>
@@ -27268,7 +27268,7 @@
         <v>0</v>
       </c>
       <c r="H752">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I752" s="1" t="s">
         <v>1674</v>
@@ -27297,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="H753">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I753" s="1" t="s">
         <v>1674</v>
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="H754">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I754" s="1" t="s">
         <v>1674</v>
@@ -27355,7 +27355,7 @@
         <v>0</v>
       </c>
       <c r="H755">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I755" s="1" t="s">
         <v>1674</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="H756">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I756" s="1" t="s">
         <v>1674</v>
@@ -27413,7 +27413,7 @@
         <v>0</v>
       </c>
       <c r="H757">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I757" s="1" t="s">
         <v>1674</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="H758">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I758" s="1" t="s">
         <v>1674</v>
@@ -27471,7 +27471,7 @@
         <v>0</v>
       </c>
       <c r="H759">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I759" s="1" t="s">
         <v>1674</v>
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="H760">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I760" s="1" t="s">
         <v>1674</v>
@@ -27529,7 +27529,7 @@
         <v>0</v>
       </c>
       <c r="H761">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I761" s="1" t="s">
         <v>1674</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="H762">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I762" s="1" t="s">
         <v>1674</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="H763">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I763" s="1" t="s">
         <v>1674</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="H764">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I764" s="1" t="s">
         <v>1674</v>
@@ -27645,7 +27645,7 @@
         <v>92</v>
       </c>
       <c r="H765">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I765" s="1" t="s">
         <v>1675</v>
